--- a/document/设计/灵豹智能画面接口开发列表.xlsx
+++ b/document/设计/灵豹智能画面接口开发列表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBuilderProjects\LBAI\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/RingBall_Doc/document/设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284A47FA-2E67-7340-9A6E-15197D94680C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口列表" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
   <si>
     <t>序号</t>
   </si>
@@ -156,9 +157,6 @@
   </si>
   <si>
     <t>获取当前日期行动推荐列表</t>
-  </si>
-  <si>
-    <t>﻿/sqldb/getCurDateSuggestAction/</t>
   </si>
   <si>
     <t>ERROR_CODE:SUCCESS/ERROR
@@ -487,42 +485,70 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">行程推荐及推荐日程完成，"上次互动"需要讨论,work_date是不是取当天日期而不是传参
+    <t>custId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数可以抽出，标签需要关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok，画面需要调整</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略推荐行动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:[]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>行程推荐及推荐日程完成，"上次互动"需要讨论,work_date是不是取当天日期而不是传参</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>custId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数可以抽出，标签需要关联</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok，画面需要调整</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略推荐行动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>action_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果没有传日期，默认为当天</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面调整：左侧显示高中低数值，右侧显示比例</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿/sqldb/getCurDateSuggestAction/</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,8 +620,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (正文)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +649,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -687,6 +731,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -705,7 +755,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -780,6 +830,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -815,6 +882,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -990,23 +1074,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.36328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="61" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.36328125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="40.36328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="73.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="40.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="73.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="41.5" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1037,7 +1121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45">
+    <row r="2" spans="1:9" ht="48">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1055,14 +1139,14 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="45">
+    <row r="3" spans="1:9" ht="48">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1080,14 +1164,14 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="45">
+    <row r="4" spans="1:9" ht="48">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1110,7 +1194,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="45">
+    <row r="5" spans="1:9" ht="48">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1128,14 +1212,14 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="45">
+    <row r="6" spans="1:9" ht="48">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1154,7 +1238,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="45">
+    <row r="7" spans="1:9" ht="48">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1173,7 +1257,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="60">
+    <row r="8" spans="1:9" ht="48">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1192,7 +1276,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="45">
+    <row r="9" spans="1:9" ht="48">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1213,7 +1297,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="60">
+    <row r="10" spans="1:9" ht="65">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1222,144 +1306,146 @@
         <v>38</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="9" t="s">
-        <v>102</v>
+      <c r="G10" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="46">
+    <row r="11" spans="1:9" ht="49">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="47">
+        <v>98</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="49">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="15" customFormat="1" ht="47" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="60">
+    <row r="14" spans="1:9" ht="64">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="45">
+    <row r="15" spans="1:9" ht="48">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="45">
+    <row r="16" spans="1:9" ht="48">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1368,203 +1454,203 @@
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="45">
+    <row r="17" spans="1:9" ht="48">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="45">
+    <row r="18" spans="1:9" ht="48">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="45">
+    <row r="19" spans="1:9" ht="48">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="45">
+    <row r="20" spans="1:9" ht="48">
       <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="45">
+    <row r="21" spans="1:9" ht="48">
       <c r="A21" s="6">
         <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="45">
+    <row r="22" spans="1:9" ht="48">
       <c r="A22" s="6">
         <v>13</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="45">
+    <row r="23" spans="1:9" ht="48">
       <c r="A23" s="6">
         <v>14</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" ht="45">
+    <row r="24" spans="1:9" ht="48">
       <c r="A24" s="6">
         <v>15</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" ht="45">
+    <row r="25" spans="1:9" ht="48">
       <c r="A25" s="6">
         <v>16</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" ht="45">
+    <row r="26" spans="1:9" ht="48">
       <c r="A26" s="6">
         <v>17</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I26" s="9"/>
     </row>
@@ -1576,14 +1662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="5" spans="2:11" ht="15">
       <c r="B5" s="1"/>
@@ -1613,7 +1699,7 @@
     </row>
     <row r="7" spans="2:11" ht="15">
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1627,10 +1713,10 @@
     </row>
     <row r="8" spans="2:11" ht="15">
       <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1639,16 +1725,16 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:11" ht="15">
       <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1657,7 +1743,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1671,7 +1757,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="1"/>
     </row>
@@ -1679,7 +1765,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1693,10 +1779,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1709,10 +1795,10 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1738,7 +1824,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1752,10 +1838,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1768,7 +1854,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1783,7 +1869,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1797,7 +1883,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1811,7 +1897,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
